--- a/Excel/GalConfig@cs.xlsx
+++ b/Excel/GalConfig@cs.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>StartChapter</t>
+  </si>
+  <si>
+    <t>Chapter1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -219,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +470,7 @@
   <dimension ref="C2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -539,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -657,6 +661,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/GalConfig@cs.xlsx
+++ b/Excel/GalConfig@cs.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>Chapter1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +474,7 @@
   <dimension ref="C2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -559,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
         <v>3</v>
